--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,43 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
@@ -94,49 +94,55 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>watch</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +517,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
@@ -619,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.875</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8484848484848485</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K6">
-        <v>0.7894736842105263</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
@@ -796,10 +802,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -837,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -869,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -887,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.6551724137931034</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -919,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6231884057971014</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C10">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -937,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.6296296296296297</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -969,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5714285714285714</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -987,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.5666666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1011,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1019,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5531914893617021</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1037,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K12">
-        <v>0.3636363636363636</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1069,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1087,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K13">
-        <v>0.3611111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1137,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K14">
-        <v>0.3541666666666667</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1169,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5217391304347826</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -1187,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15">
-        <v>0.2542372881355932</v>
+        <v>0.2431693989071038</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>44</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1219,13 +1225,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4358974358974359</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1237,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K16">
-        <v>0.2340619307832423</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L16">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1261,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>841</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1293,13 +1299,13 @@
         <v>39</v>
       </c>
       <c r="K17">
-        <v>0.03084415584415584</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1311,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>597</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1319,37 +1325,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.04040404040404041</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="F18">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K18">
-        <v>0.02710843373493976</v>
+        <v>0.03148148148148148</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1361,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>646</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1369,25 +1375,77 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>0.01612903225806452</v>
+        <v>0.0301659125188537</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1708</v>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>0.02432778489116517</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>0.0184331797235023</v>
+      </c>
+      <c r="L21">
+        <v>32</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1704</v>
       </c>
     </row>
   </sheetData>
